--- a/public/assets/uploads/Uploads/target/Data_1245136204.xlsx
+++ b/public/assets/uploads/Uploads/target/Data_1245136204.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="600" yWindow="810" windowWidth="19575" windowHeight="7080"/>
   </bookViews>
   <sheets>
-    <sheet name="Incorrect Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Incorrect Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Month</t>
   </si>
@@ -53,26 +52,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,31 +80,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,94 +394,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.708984" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="21.708984" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.708984" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.708984" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="21.708984" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2"/>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>58515696</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>